--- a/tut05/output/0401CS18.xlsx
+++ b/tut05/output/0401CS18.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.836734693877551</v>
+        <v>4.84</v>
       </c>
       <c r="C6" t="n">
         <v>4.75</v>
       </c>
       <c r="D6" t="n">
-        <v>4.906976744186046</v>
+        <v>4.91</v>
       </c>
       <c r="E6" t="n">
-        <v>5.787234042553192</v>
+        <v>5.79</v>
       </c>
       <c r="F6" t="n">
-        <v>5.166666666666667</v>
+        <v>5.17</v>
       </c>
       <c r="G6" t="n">
         <v>4.75</v>
       </c>
       <c r="H6" t="n">
-        <v>6.146341463414634</v>
+        <v>6.15</v>
       </c>
       <c r="I6" t="n">
         <v>7</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.836734693877551</v>
+        <v>4.84</v>
       </c>
       <c r="C8" t="n">
-        <v>4.795698924731183</v>
+        <v>4.8</v>
       </c>
       <c r="D8" t="n">
-        <v>4.830882352941177</v>
+        <v>4.83</v>
       </c>
       <c r="E8" t="n">
-        <v>5.076502732240437</v>
+        <v>5.08</v>
       </c>
       <c r="F8" t="n">
-        <v>5.093333333333334</v>
+        <v>5.09</v>
       </c>
       <c r="G8" t="n">
-        <v>5.041509433962264</v>
+        <v>5.04</v>
       </c>
       <c r="H8" t="n">
-        <v>5.189542483660131</v>
+        <v>5.19</v>
       </c>
       <c r="I8" t="n">
-        <v>5.398843930635838</v>
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
